--- a/inst/rawdata/population/Personer_svalbard_1990-2020.xlsx
+++ b/inst/rawdata/population/Personer_svalbard_1990-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\rawdata\population\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/git/fhidata/inst/rawdata/population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D873E97E-BF81-454F-A13A-1DA3002E2259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A031E8B-22D0-4014-9D0B-A824FD09C096}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D90D801-1744-7548-B1B7-A0B5D78F0BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personer" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Longyearbyen og Ny-Ålesund. Registrert bosatt på fastlandet</t>
   </si>
@@ -413,23 +413,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="32" width="9.26953125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="9.26953125" style="3" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="32" width="9.33203125" style="1" customWidth="1"/>
+    <col min="33" max="35" width="9.33203125" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -529,8 +529,14 @@
       <c r="AG1" s="3">
         <v>2021</v>
       </c>
+      <c r="AH1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +636,14 @@
       <c r="AG2" s="4">
         <v>1697</v>
       </c>
+      <c r="AH2" s="4">
+        <v>1697</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>1697</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -731,8 +743,14 @@
       <c r="AG3" s="4">
         <v>731</v>
       </c>
+      <c r="AH3" s="4">
+        <v>731</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>731</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -832,8 +850,14 @@
       <c r="AG4" s="4">
         <v>501</v>
       </c>
+      <c r="AH4" s="4">
+        <v>501</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>501</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -931,6 +955,12 @@
         <v>10</v>
       </c>
       <c r="AG5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="4">
         <v>10</v>
       </c>
     </row>
